--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H2">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I2">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J2">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N2">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O2">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P2">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q2">
-        <v>137.116068044228</v>
+        <v>145.3391961807975</v>
       </c>
       <c r="R2">
-        <v>137.116068044228</v>
+        <v>581.35678472319</v>
       </c>
       <c r="S2">
-        <v>0.0731407743372423</v>
+        <v>0.06655929787598966</v>
       </c>
       <c r="T2">
-        <v>0.0731407743372423</v>
+        <v>0.04462783321479456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H3">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I3">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J3">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N3">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P3">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q3">
-        <v>58.08243632682676</v>
+        <v>81.71763846932934</v>
       </c>
       <c r="R3">
-        <v>58.08243632682676</v>
+        <v>490.305830815976</v>
       </c>
       <c r="S3">
-        <v>0.03098246929723356</v>
+        <v>0.03742327454347889</v>
       </c>
       <c r="T3">
-        <v>0.03098246929723356</v>
+        <v>0.03763830992755218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H4">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I4">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J4">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N4">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O4">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P4">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q4">
-        <v>20.33594225271057</v>
+        <v>21.44223863356167</v>
       </c>
       <c r="R4">
-        <v>20.33594225271057</v>
+        <v>128.65343180137</v>
       </c>
       <c r="S4">
-        <v>0.01084764597217684</v>
+        <v>0.009819652136811852</v>
       </c>
       <c r="T4">
-        <v>0.01084764597217684</v>
+        <v>0.009876076185601384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H5">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I5">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J5">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N5">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O5">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P5">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q5">
-        <v>54.12341163094824</v>
+        <v>56.13523443934233</v>
       </c>
       <c r="R5">
-        <v>54.12341163094824</v>
+        <v>336.811406636054</v>
       </c>
       <c r="S5">
-        <v>0.02887063706628439</v>
+        <v>0.02570759911000767</v>
       </c>
       <c r="T5">
-        <v>0.02887063706628439</v>
+        <v>0.02585531583217211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H6">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I6">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J6">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N6">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O6">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P6">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q6">
-        <v>39.32118853920008</v>
+        <v>39.98806910440533</v>
       </c>
       <c r="R6">
-        <v>39.32118853920008</v>
+        <v>239.928414626432</v>
       </c>
       <c r="S6">
-        <v>0.02097480053679864</v>
+        <v>0.01831286998240208</v>
       </c>
       <c r="T6">
-        <v>0.02097480053679864</v>
+        <v>0.01841809634429019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>198.772404239099</v>
+        <v>200.111107</v>
       </c>
       <c r="H7">
-        <v>198.772404239099</v>
+        <v>400.222214</v>
       </c>
       <c r="I7">
-        <v>0.2375622505048115</v>
+        <v>0.225447015437588</v>
       </c>
       <c r="J7">
-        <v>0.2375622505048115</v>
+        <v>0.1817575604364342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N7">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O7">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P7">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q7">
-        <v>136.3758458787447</v>
+        <v>147.664787410798</v>
       </c>
       <c r="R7">
-        <v>136.3758458787447</v>
+        <v>590.6591496431921</v>
       </c>
       <c r="S7">
-        <v>0.0727459232950758</v>
+        <v>0.06762432178889778</v>
       </c>
       <c r="T7">
-        <v>0.0727459232950758</v>
+        <v>0.04534192893202382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H8">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I8">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J8">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N8">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O8">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P8">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q8">
-        <v>76.35095512520874</v>
+        <v>85.3769986907175</v>
       </c>
       <c r="R8">
-        <v>76.35095512520874</v>
+        <v>512.2619921443051</v>
       </c>
       <c r="S8">
-        <v>0.0407273054055526</v>
+        <v>0.03909910909748272</v>
       </c>
       <c r="T8">
-        <v>0.0407273054055526</v>
+        <v>0.03932377388281391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H9">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I9">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J9">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N9">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P9">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q9">
-        <v>32.3423035156019</v>
+        <v>48.003614275708</v>
       </c>
       <c r="R9">
-        <v>32.3423035156019</v>
+        <v>432.032528481372</v>
       </c>
       <c r="S9">
-        <v>0.01725210733302395</v>
+        <v>0.02198365579046115</v>
       </c>
       <c r="T9">
-        <v>0.01725210733302395</v>
+        <v>0.03316496191510528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H10">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I10">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J10">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N10">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O10">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P10">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q10">
-        <v>11.32375392988015</v>
+        <v>12.595872468335</v>
       </c>
       <c r="R10">
-        <v>11.32375392988015</v>
+        <v>113.362852215015</v>
       </c>
       <c r="S10">
-        <v>0.00604034335763386</v>
+        <v>0.005768384920644374</v>
       </c>
       <c r="T10">
-        <v>0.00604034335763386</v>
+        <v>0.008702295379272088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H11">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I11">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J11">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N11">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O11">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P11">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q11">
-        <v>30.1377820382422</v>
+        <v>32.975673205657</v>
       </c>
       <c r="R11">
-        <v>30.1377820382422</v>
+        <v>296.781058850913</v>
       </c>
       <c r="S11">
-        <v>0.01607616632044212</v>
+        <v>0.01510148475588309</v>
       </c>
       <c r="T11">
-        <v>0.01607616632044212</v>
+        <v>0.02278238758667806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H12">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I12">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J12">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N12">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O12">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P12">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q12">
-        <v>21.89539376711086</v>
+        <v>23.490300024256</v>
       </c>
       <c r="R12">
-        <v>21.89539376711086</v>
+        <v>211.412700218304</v>
       </c>
       <c r="S12">
-        <v>0.01167949225344441</v>
+        <v>0.01075757894357609</v>
       </c>
       <c r="T12">
-        <v>0.01167949225344441</v>
+        <v>0.01622908852663379</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>110.683329333029</v>
+        <v>117.551811</v>
       </c>
       <c r="H13">
-        <v>110.683329333029</v>
+        <v>352.655433</v>
       </c>
       <c r="I13">
-        <v>0.1322828533989602</v>
+        <v>0.1324349524948329</v>
       </c>
       <c r="J13">
-        <v>0.1322828533989602</v>
+        <v>0.1601555059528365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N13">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O13">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P13">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q13">
-        <v>75.93877389695716</v>
+        <v>86.743127062254</v>
       </c>
       <c r="R13">
-        <v>75.93877389695716</v>
+        <v>520.4587623735241</v>
       </c>
       <c r="S13">
-        <v>0.04050743872886325</v>
+        <v>0.03972473898678545</v>
       </c>
       <c r="T13">
-        <v>0.04050743872886325</v>
+        <v>0.03995299866233335</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H14">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I14">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J14">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N14">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O14">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P14">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q14">
-        <v>52.63276799387359</v>
+        <v>59.9842741190075</v>
       </c>
       <c r="R14">
-        <v>52.63276799387359</v>
+        <v>359.905644714045</v>
       </c>
       <c r="S14">
-        <v>0.02807549444418589</v>
+        <v>0.02747029895497341</v>
       </c>
       <c r="T14">
-        <v>0.02807549444418589</v>
+        <v>0.02762814420925569</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H15">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I15">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J15">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N15">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P15">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q15">
-        <v>22.29526735497355</v>
+        <v>33.72643688082978</v>
       </c>
       <c r="R15">
-        <v>22.29526735497355</v>
+        <v>303.537931927468</v>
       </c>
       <c r="S15">
-        <v>0.0118927937597555</v>
+        <v>0.01544530324671977</v>
       </c>
       <c r="T15">
-        <v>0.0118927937597555</v>
+        <v>0.02330107871171174</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H16">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I16">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J16">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N16">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O16">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P16">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q16">
-        <v>7.806064933093618</v>
+        <v>8.849623183003891</v>
       </c>
       <c r="R16">
-        <v>7.806064933093618</v>
+        <v>79.64660864703501</v>
       </c>
       <c r="S16">
-        <v>0.004163929449531025</v>
+        <v>0.004052758794641269</v>
       </c>
       <c r="T16">
-        <v>0.004163929449531025</v>
+        <v>0.006114069122830188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H17">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I17">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J17">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N17">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O17">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P17">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q17">
-        <v>20.77557362926828</v>
+        <v>23.16808802324411</v>
       </c>
       <c r="R17">
-        <v>20.77557362926828</v>
+        <v>208.512792209197</v>
       </c>
       <c r="S17">
-        <v>0.01108215517130299</v>
+        <v>0.01061001926856667</v>
       </c>
       <c r="T17">
-        <v>0.01108215517130299</v>
+        <v>0.01600647718989624</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H18">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I18">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J18">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N18">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O18">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P18">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q18">
-        <v>15.09365768102041</v>
+        <v>16.50384315917511</v>
       </c>
       <c r="R18">
-        <v>15.09365768102041</v>
+        <v>148.534588432576</v>
       </c>
       <c r="S18">
-        <v>0.008051294251050178</v>
+        <v>0.007558072714009439</v>
       </c>
       <c r="T18">
-        <v>0.008051294251050178</v>
+        <v>0.01140225247797428</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>76.2998967599214</v>
+        <v>82.58969233333333</v>
       </c>
       <c r="H19">
-        <v>76.2998967599214</v>
+        <v>247.769077</v>
       </c>
       <c r="I19">
-        <v>0.09118959574372489</v>
+        <v>0.09304630773172745</v>
       </c>
       <c r="J19">
-        <v>0.09118959574372489</v>
+        <v>0.1125222474210465</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N19">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O19">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P19">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q19">
-        <v>52.34862958430924</v>
+        <v>60.94409022845934</v>
       </c>
       <c r="R19">
-        <v>52.34862958430924</v>
+        <v>365.664541370756</v>
       </c>
       <c r="S19">
-        <v>0.0279239286678993</v>
+        <v>0.02790985475281688</v>
       </c>
       <c r="T19">
-        <v>0.0279239286678993</v>
+        <v>0.02807022570937839</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H20">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I20">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J20">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N20">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O20">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P20">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q20">
-        <v>70.25806704567432</v>
+        <v>75.60903735467001</v>
       </c>
       <c r="R20">
-        <v>70.25806704567432</v>
+        <v>453.65422412802</v>
       </c>
       <c r="S20">
-        <v>0.03747722276794695</v>
+        <v>0.03462578968130561</v>
       </c>
       <c r="T20">
-        <v>0.03747722276794695</v>
+        <v>0.03482475062402884</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H21">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I21">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J21">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N21">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P21">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q21">
-        <v>29.76135301888922</v>
+        <v>42.51153262108978</v>
       </c>
       <c r="R21">
-        <v>29.76135301888922</v>
+        <v>382.603793589808</v>
       </c>
       <c r="S21">
-        <v>0.01587537067080604</v>
+        <v>0.01946851116041751</v>
       </c>
       <c r="T21">
-        <v>0.01587537067080604</v>
+        <v>0.02937056681260494</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H22">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I22">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J22">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N22">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O22">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P22">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q22">
-        <v>10.42010622538447</v>
+        <v>11.15478180982889</v>
       </c>
       <c r="R22">
-        <v>10.42010622538447</v>
+        <v>100.39303628846</v>
       </c>
       <c r="S22">
-        <v>0.005558317481472018</v>
+        <v>0.005108425426396894</v>
       </c>
       <c r="T22">
-        <v>0.005558317481472018</v>
+        <v>0.007706667913992772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H23">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I23">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J23">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N23">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O23">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P23">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q23">
-        <v>27.73275471902554</v>
+        <v>29.20293457765911</v>
       </c>
       <c r="R23">
-        <v>27.73275471902554</v>
+        <v>262.826411198932</v>
       </c>
       <c r="S23">
-        <v>0.01479327101182673</v>
+        <v>0.01337372761432859</v>
       </c>
       <c r="T23">
-        <v>0.01479327101182673</v>
+        <v>0.02017586024907894</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H24">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I24">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J24">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N24">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O24">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P24">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q24">
-        <v>20.14811786910057</v>
+        <v>20.80278059949511</v>
       </c>
       <c r="R24">
-        <v>20.14811786910057</v>
+        <v>187.225025395456</v>
       </c>
       <c r="S24">
-        <v>0.01074745624931942</v>
+        <v>0.00952680699326444</v>
       </c>
       <c r="T24">
-        <v>0.01074745624931942</v>
+        <v>0.01437232251613351</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.850680981866</v>
+        <v>104.1027373333333</v>
       </c>
       <c r="H25">
-        <v>101.850680981866</v>
+        <v>312.308212</v>
       </c>
       <c r="I25">
-        <v>0.1217265398691611</v>
+        <v>0.1172831022851878</v>
       </c>
       <c r="J25">
-        <v>0.1217265398691611</v>
+        <v>0.1418321540677518</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N25">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O25">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P25">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q25">
-        <v>69.87877832136199</v>
+        <v>76.81886731658935</v>
       </c>
       <c r="R25">
-        <v>69.87877832136199</v>
+        <v>460.9132038995361</v>
       </c>
       <c r="S25">
-        <v>0.03727490168778996</v>
+        <v>0.03517984140947477</v>
       </c>
       <c r="T25">
-        <v>0.03727490168778996</v>
+        <v>0.03538198595191278</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H26">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I26">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J26">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N26">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O26">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P26">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q26">
-        <v>81.38792089256054</v>
+        <v>88.951686663895</v>
       </c>
       <c r="R26">
-        <v>81.38792089256054</v>
+        <v>533.7101199833701</v>
       </c>
       <c r="S26">
-        <v>0.04341413548892008</v>
+        <v>0.04073616728875318</v>
       </c>
       <c r="T26">
-        <v>0.04341413548892008</v>
+        <v>0.04097023866506831</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H27">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I27">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J27">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N27">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P27">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q27">
-        <v>34.47596478255312</v>
+        <v>50.01349920082756</v>
       </c>
       <c r="R27">
-        <v>34.47596478255312</v>
+        <v>450.121492807448</v>
       </c>
       <c r="S27">
-        <v>0.01839024992611418</v>
+        <v>0.02290409936619884</v>
       </c>
       <c r="T27">
-        <v>0.01839024992611418</v>
+        <v>0.03455356062795398</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H28">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I28">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J28">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N28">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O28">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P28">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q28">
-        <v>12.07079580786564</v>
+        <v>13.12325472016778</v>
       </c>
       <c r="R28">
-        <v>12.07079580786564</v>
+        <v>118.10929248151</v>
       </c>
       <c r="S28">
-        <v>0.006438832186824777</v>
+        <v>0.006009904024345636</v>
       </c>
       <c r="T28">
-        <v>0.006438832186824777</v>
+        <v>0.009066655700065424</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H29">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I29">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J29">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N29">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O29">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P29">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q29">
-        <v>32.12600833065195</v>
+        <v>34.35634650436022</v>
       </c>
       <c r="R29">
-        <v>32.12600833065195</v>
+        <v>309.207118539242</v>
       </c>
       <c r="S29">
-        <v>0.01713673064859661</v>
+        <v>0.01573377561597218</v>
       </c>
       <c r="T29">
-        <v>0.01713673064859661</v>
+        <v>0.02373627362337732</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H30">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I30">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J30">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N30">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O30">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P30">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q30">
-        <v>23.33985963773115</v>
+        <v>24.47382596532622</v>
       </c>
       <c r="R30">
-        <v>23.33985963773115</v>
+        <v>220.264433687936</v>
       </c>
       <c r="S30">
-        <v>0.01245000262314673</v>
+        <v>0.01120799285668885</v>
       </c>
       <c r="T30">
-        <v>0.01245000262314673</v>
+        <v>0.01690859153636067</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>117.98524376164</v>
+        <v>122.4736406666667</v>
       </c>
       <c r="H31">
-        <v>117.98524376164</v>
+        <v>367.420922</v>
       </c>
       <c r="I31">
-        <v>0.141009714812619</v>
+        <v>0.1379799311093492</v>
       </c>
       <c r="J31">
-        <v>0.141009714812619</v>
+        <v>0.166861128892824</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N31">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O31">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P31">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q31">
-        <v>80.94854756522857</v>
+        <v>90.37501407890268</v>
       </c>
       <c r="R31">
-        <v>80.94854756522857</v>
+        <v>542.2500844734161</v>
       </c>
       <c r="S31">
-        <v>0.04317976393901664</v>
+        <v>0.04138799195739047</v>
       </c>
       <c r="T31">
-        <v>0.04317976393901664</v>
+        <v>0.0416258087399983</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H32">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I32">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J32">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N32">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O32">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P32">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q32">
-        <v>159.4337506969017</v>
+        <v>189.4099990166625</v>
       </c>
       <c r="R32">
-        <v>159.4337506969017</v>
+        <v>757.6399960666499</v>
       </c>
       <c r="S32">
-        <v>0.08504552491762556</v>
+        <v>0.08674188984476171</v>
       </c>
       <c r="T32">
-        <v>0.08504552491762556</v>
+        <v>0.05816020775850992</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H33">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I33">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J33">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N33">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O33">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P33">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q33">
-        <v>67.53621807630141</v>
+        <v>106.4966521685267</v>
       </c>
       <c r="R33">
-        <v>67.53621807630141</v>
+        <v>638.97991301116</v>
       </c>
       <c r="S33">
-        <v>0.03602532771225775</v>
+        <v>0.04877103066995737</v>
       </c>
       <c r="T33">
-        <v>0.03602532771225775</v>
+        <v>0.0490512706393267</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H34">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I34">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J34">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N34">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O34">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P34">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q34">
-        <v>23.64591979299928</v>
+        <v>27.94410940215834</v>
       </c>
       <c r="R34">
-        <v>23.64591979299928</v>
+        <v>167.66465641295</v>
       </c>
       <c r="S34">
-        <v>0.01261326194839858</v>
+        <v>0.01279723811919113</v>
       </c>
       <c r="T34">
-        <v>0.01261326194839858</v>
+        <v>0.01287077147637612</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H35">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I35">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J35">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N35">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O35">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P35">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q35">
-        <v>62.93280313472088</v>
+        <v>73.15696645748166</v>
       </c>
       <c r="R35">
-        <v>62.93280313472088</v>
+        <v>438.94179874489</v>
       </c>
       <c r="S35">
-        <v>0.03356976332636662</v>
+        <v>0.0335028433492234</v>
       </c>
       <c r="T35">
-        <v>0.03356976332636662</v>
+        <v>0.0336953518048578</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H36">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I36">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J36">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N36">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O36">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P36">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q36">
-        <v>45.7212977303472</v>
+        <v>52.11354079818666</v>
       </c>
       <c r="R36">
-        <v>45.7212977303472</v>
+        <v>312.68124478912</v>
       </c>
       <c r="S36">
-        <v>0.02438876177971007</v>
+        <v>0.02386583094242632</v>
       </c>
       <c r="T36">
-        <v>0.02438876177971007</v>
+        <v>0.02400296480325323</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>231.125574084126</v>
+        <v>260.790245</v>
       </c>
       <c r="H37">
-        <v>231.125574084126</v>
+        <v>521.5804899999999</v>
       </c>
       <c r="I37">
-        <v>0.2762290456707231</v>
+        <v>0.2938086909413146</v>
       </c>
       <c r="J37">
-        <v>0.2762290456707231</v>
+        <v>0.236871403229107</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N37">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O37">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P37">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q37">
-        <v>158.5730463471102</v>
+        <v>192.44077284893</v>
       </c>
       <c r="R37">
-        <v>158.5730463471102</v>
+        <v>769.76309139572</v>
       </c>
       <c r="S37">
-        <v>0.08458640598636449</v>
+        <v>0.08812985801575467</v>
       </c>
       <c r="T37">
-        <v>0.08458640598636449</v>
+        <v>0.05909083674678328</v>
       </c>
     </row>
   </sheetData>
